--- a/Fallout-Service/src/main/resources/FallOut_17396256.xlsx
+++ b/Fallout-Service/src/main/resources/FallOut_17396256.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>N</t>
   </si>
@@ -127,13 +127,38 @@
   </si>
   <si>
     <t>FACTOREDVALUE</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,16 +514,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -546,11 +571,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>7111116.5800000001</v>
-      </c>
-      <c r="E2">
-        <v>597537.66</v>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -581,11 +606,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>7111116.5800000001</v>
-      </c>
-      <c r="E3">
-        <v>597537.66</v>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -761,16 +786,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -852,15 +877,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,11 +936,11 @@
       <c r="F2">
         <v>12084.6</v>
       </c>
-      <c r="G2">
-        <v>912</v>
-      </c>
-      <c r="H2">
-        <v>12084.6</v>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
       </c>
       <c r="I2">
         <v>912</v>
@@ -940,11 +965,11 @@
       <c r="F3">
         <v>12650.09</v>
       </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-      <c r="H3">
-        <v>24734.69</v>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
       </c>
       <c r="I3">
         <v>1812</v>
@@ -965,11 +990,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
